--- a/src/test/resources/testData/Hydroflask/Hydro.xlsx
+++ b/src/test/resources/testData/Hydroflask/Hydro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cent_vnarra\Desktop\HYDROFLASK-US\HoT-digital-master(updated code)\HoT-digital-master\src\test\resources\TestData\Hydroflask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vivek Vicky\Downloads\HoT-digital\src\test\resources\testData\Hydroflask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF2307C-8FC0-43D2-A3AD-822B01A21966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0E0936-CF79-43CE-971F-15B8E3DBAFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9360" xr2:uid="{919379F5-1F9E-47FD-8352-1EE1938A0327}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{919379F5-1F9E-47FD-8352-1EE1938A0327}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
@@ -525,7 +525,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
